--- a/Data/new_structures_caffeine.xlsx
+++ b/Data/new_structures_caffeine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="451">
   <si>
     <t>SMILES_From_Tensor_rotation</t>
   </si>
@@ -25,1507 +25,1348 @@
     <t>PUBCHEM_SMILES</t>
   </si>
   <si>
-    <t>CN(C=1SC2=CC=CC=C2)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC1)NC2=C(C(N(C)C(N2C)=O)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)NC2=C(C(N(C)C(N2C)=O)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(CCC=1CCNC=N)C2=C(C(N(C)C(=O)N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)NC2=C1CN(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCC2CNCNC)C=C2N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C1N(C)C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)NC=C1CN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C2=O)C)OC</t>
-  </si>
-  <si>
-    <t>CN(CCCCCN1C=N)C2=C(C(N(C)C(N2C)=O)C)ON1</t>
-  </si>
-  <si>
-    <t>C=1N(C2=C(N=1)ONC(=O)N(C)C2=O)C</t>
-  </si>
-  <si>
-    <t>C123N(C1C=C2CN(C)CN(C)C3=O)O</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C)C2=O)OC</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C=2CN(C)C(N(C)C=2N=C1NCCCN=O)C</t>
-  </si>
-  <si>
-    <t>C1N(C(N(C)C=C1N=C(NCC=O)C=O)C)C=O</t>
-  </si>
-  <si>
-    <t>CN(C(C=C(N(C)C=O)N=C(NCCCCCN)NC)=O)C</t>
-  </si>
-  <si>
-    <t>CN1C=2CN(C)CN(C)C=2N=C1NCCCN=O</t>
-  </si>
-  <si>
-    <t>CN(CCNC=1N(C)C2=C(N=1)C(=O)N(C)CN2C)OC</t>
-  </si>
-  <si>
-    <t>C1N(C2(N(C)C=C1N=C(NCC=O)C2=O)C)OC</t>
-  </si>
-  <si>
-    <t>C1NC(C2=C(N=C(N2C)NCCCCN)N(C)C1=O)=O</t>
-  </si>
-  <si>
-    <t>CN(CCNCN(C)C1=C(C(N(C(N1C)=O)C)=O)N)C</t>
-  </si>
-  <si>
-    <t>CN1C(C=C(N(C)C1=O)N=C(NCCCCCN)NC)=O</t>
-  </si>
-  <si>
-    <t>C1N(C(C=2N(C)C(=NC=2N1C)NCCCNCC)C)N=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)C2=C1N=C(NCCCCCN)N2C=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C1C=2NC(=O)N(C)C(N(C)C=2N)=C1SCC)C</t>
-  </si>
-  <si>
-    <t>CN(CC1=C(N=C(N1C)SCCC)N(C)CNC)OO</t>
-  </si>
-  <si>
-    <t>C1NCC=2N(C)C(=NC=2C1=O)NCCCNCCCN=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCC/N=C1/SCC(=O)N1)=NC=CC(=O)N(C=O)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC3=NC4=CC=CC=C4[NH1]3)C=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>C1NC(NCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCN2C(=O)C3=C(C=CC=C3)C2=O)=NC4=C1C(N(C(N4C)=O)C)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(NCCCNC(CSC(N3CCCC3)=S)=O)=NC=1N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>C1NC(NCCNC(CSC(N2CCCC2)=S)=O)C3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N(C=1)CN=C(NCCCCCCN)NC=1C=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC(=S)N3CCCC3)=NC=2NC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(=O)N(C)C(=O)C=1N(C(NCCCCCCN)=N)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(=NC=1N(C(=O)N(C)C2=O)C)NCC=3N=C[NH1])C=3C</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C)C2C=1N(C)C(SCC)=NC)OC=O</t>
+  </si>
+  <si>
+    <t>C=1N(C2N(C)CC=1N(C)CSCC(C)C)N2OC</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)NC2C=1N(C)C(SCC)=NC)OCC=O</t>
+  </si>
+  <si>
+    <t>CN(CC=1N(C2=C(N=1)C(=O)N(C(N2C)=O)C)CCC)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(C)C(C=1N(C(SCC)=NC2)O)C)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)NC2C=1N(C)C(SCC)=NC)OC=O</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C)C(=O)C=1N(C(SCC)=NC2)OCC)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=NC=1N(C(=O)N(C)C2=O)C)NCCN=C[NH1]C</t>
+  </si>
+  <si>
+    <t>C=12NCN(C)C(=O)C=1N(C(SCC)=NC2)OCC=O</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C)C2C=1N(C)C(SCC)=NC)OOCC</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C)C(=O)C=1N(C(SCC)=NC2)CC=O)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(CC=1N(C)C(SCC)=NC2)O)C=O</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=C(N)NN(C(N1C)=O)C=O</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)CC=1N(C)C(NCCCCCN)=N2)=O)OC</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)C(=O)C1NC(NCCCNC(=O)C)=N)=O</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(NCCCCN)=N)C)=O)O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(C=1N(C)C(NCCCCN)=N2)=O)C)OO</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(NCCCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3NC(=O)N(C)C(C=3N2C)=O)C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=12NCN(C)C(C=1N(C)C(NCCCCN)=N2)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(C=1N(C)C(NCCCCN)=N2)=O)=O)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(SCC(C)C)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C)C(C=1N(C)C(NCCCCCN)=N2)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)CC=1N(C)C(SCC(C)C)=N2)=O)OC=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C)C(N3C)=O</t>
+  </si>
+  <si>
+    <t>C=1NC2(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2)C)C=O</t>
+  </si>
+  <si>
+    <t>C1NC(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C(N3C)=O)C</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C(N3C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12NC(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2)CC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCN=[N+1]=[N-1])N=N4)NC)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)[NH1]2)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>C1NC(N(CCCNC)C)=NC=2C(=O)N(C)C(N(C)C=21)=O</t>
   </si>
   <si>
     <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
   </si>
   <si>
+    <t>CN1C(SC=2SC3=C(C=CC=C3)N=2)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCNC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NCN(C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C(=O)N(C)C=2N1)CC</t>
+  </si>
+  <si>
+    <t>C1N(C)C1(NCC=CCCCN=N)CN(C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CNC(=O)N1CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C(=O)N(C)C=2N1C)C</t>
+  </si>
+  <si>
+    <t>C1C(=O)N(C)C(=O)C2=C1N(C(N(CCCNC)C)=N2)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)C=NC=CC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>C12N(C)C(SC=CC=N1)CC(=S)N(C)C2N(C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)CNC(=O)N(C1=O)CC</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(SC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=C(CN=[N+1]=[N-1])C=CC=C4)N=N3)SC=O)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(SC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=C(CN=[N+1]=[N-1])C=CC=C4)N=N3)C=O)C(=O)NCC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(CN=[N+1]=[N-1])C=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(CN=[N+1]=[N-1])C=CC=C5)N=N4)SC=O)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCNCCCNCCN)N1CNC(NC)=O)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCC(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC)=NCCN(C)C1=S=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCCN)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C=NCC(=O)N(C(=O)N(C)CN1)CC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C1NC=2CN</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCC(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>C1N(CSC2=NC=3N(C)C(=O)N(C)C(=O)C=3N2C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(=O)C=1N(C)C(NCCNCCN)=N2)=O)C</t>
+  </si>
+  <si>
+    <t>CN(CSC1=NC=2N(C)C(=O)N(C)C(=O)C=2N1C)N3CCCC3</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3NC(=O)N(C)C(=O)C=3N2C)C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=1=NC(NC(=O)C=1N(C)CSCC(C)C)=N</t>
+  </si>
+  <si>
+    <t>CN(C=1N(C)C=2N(C(=O)N(C)C(C=2N=1)=O)CC3)CC=CC=C3</t>
+  </si>
+  <si>
+    <t>C=12N(C3(N(C(=O)C=1N(C)C(SCC)=NC3N2)C)C)OC</t>
+  </si>
+  <si>
+    <t>CN1CN(C)C(=O)C=2N(C)C(NCCNCCN)=NC=21</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(NCCCCN)=N)=O)C)OO</t>
+  </si>
+  <si>
+    <t>CN(C(SC1=NC=2N(C)C(=O)N(C)CC=2N1C)=O)SCCCC</t>
+  </si>
+  <si>
+    <t>CN(CN(C)C(=O)C=1NC(NCCCCCCN)=NC=1)C=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)N(C(=O)C=1N(C)C(NCCCNC(=O)C)=N2)C</t>
+  </si>
+  <si>
+    <t>C=1N(CNC(=O)C=1N(C)C(SC(=S)N2CCCC2)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C(=O)C=1N(C)C(NCCCCCCN)=N2)O)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(SC(=S)N3CCCC3)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C(NCCCCCCN)=N2)O)CC</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C(NCCCCNC(C)=O)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C2NCCNCCCNCCN=N)C)OC</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(SCC(C)C)=NCN)CC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(C(=O)C=1N(C2NCC/N=C3\NC(CS3)=O)C)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C(=O)C=1N(C)C(NCCCCCN)=N2)C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)C=1N(C)C(NCCCCNC(C)=O)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)C=1N(C)C(NCCNCCCNCCN)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(CNC(=O)C=1N(C)C(NCCCCNCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>CN(C1)CN(C=2)C(SCCC)=NC=2NC1=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C=2N(C)C(SC)=NC=2N(C1=S)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C=2N(C)C(SC)=NC=2N1C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SC)=NCN1C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SCCC)=NCN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C=1N(C)C=NC=1N(C(NC)=S)S</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C)C=NCN(C(NC)=S)S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SC)=NCN1C=SC</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C=1)C(SCCC)=NC=1NC</t>
+  </si>
+  <si>
+    <t>CN(C1)CN(C)C=NCN(C(N1C)=S)S</t>
+  </si>
+  <si>
+    <t>CNC(SC(=S)N1CCCC1)=NC2=CC(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>C1NC(NCCC/N=C2/SCC(N2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=CC=CC=C3S2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(N1CCCNCCCCNCCCN=N)C2=C1C(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC=2SC3=CC=CC=C3N=2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCNCCCNCCCN)=NC2=C1C(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(N(C)C2=O)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(NCCCN2C(=O)C=CC2=O)=NC=1N(C(N(C)C=O)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1NC(=O)N2CCC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCCNC=3N(C)C4=C(N=3)NC(=O)N(C)C4=O)CC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(=O)N1CCNC=2N(C)C3=C(N=2)NC(=O)N(C)C3=O)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=CC=CN=C(N(C)CCN(C)C=C([N+1]([O-1])=O)/C=C(/C(OC)=O)S)N</t>
+  </si>
+  <si>
+    <t>O=CC=CN=C(N(C)CCN(C)C=C([N+1](=O)[O-1])/C=C(/C(OC)=O)S)N</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)CN)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(=O)N1CCNC=2N(C)C3=C(N=2)N(C)CN(C3=O)C)OC=CC=C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CNCNCC/N=C2\NC(=O)CS2NC(=O)N(C)C1=O)CC</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C)C2=C(N(C)C(N(C2=O)C)=O)N=1)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCNC2=NC=3N(C)CN(C)C(=O)C=3N2C)OO)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CNCNCC/N=C2\NC(=O)CS2NC(=O)N(C1=O)C)CC</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CN(CNCC/N=C2\NC(=O)CS2NC)CN(C)C1=O)OC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+1]=[N-1])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=C(CN=[N+1]=[N-1])C=C5)N=N4)C=O)CCC(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=C(CN=[N+1]=[N-1])C=C4)N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(NCCCNC(=O)CSC(N1CCCC1)=S)NCCN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCC2N3C(=O)C4=C(C=CC=C4)C3=O)NC=1CN(C2=O)CCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN=C(NCCCCN1C(C2=C(C=CC=C2)C1=O)=O)NCCN(C)O)C=O</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCN2C(=O)C3=C(C=CC=C3)C2)ONC1CN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCNC(=O)CSC(N2CCCC2)=S)NC=1CN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN=C(NCCCCN1C(C2=C(C=CC=C2)C1=O)=O)NC3=CCN(C(=O)N3C)C)O</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(NCCCN1C(=O)CSC(N2CCCC2)=S)NCCN(C1=O)CCC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1N(C)C(=O)N2C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC=3N(C4=CC=CC=C4N=3)CC5=CN(CCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(NCCNCCN)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12NCN(C)CC=1N(C)C(NCCCCCN)=N2</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)N(C)C=1N=C2CCNCCNN)C)C=O</t>
+  </si>
+  <si>
+    <t>C=12NCN(C(=O)C=1N(C)C(NCCNCCN)=N2)O</t>
+  </si>
+  <si>
+    <t>C1N(CNC(=O)N(C)C2N=C[NH1]C=C[NH1]C=C2CN1)C=O</t>
+  </si>
+  <si>
+    <t>C1N2CN(C)C(C2N(C)C(NCCCCN)=N1)=O</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)N(C)C=1N=C(CCN=O)C2)OC</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C(=O)C=1N(C)C(NCCNCCN)=N2)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(SCC(C)C)=N2)C)OCC</t>
+  </si>
+  <si>
+    <t>CN(CNC(=O)C=1N(C)C(NCCNCCN)=NC=1)C=O</t>
+  </si>
+  <si>
+    <t>C1N(CN1C(=O)C=2N(C)C(NCCCCCCN)=NC=2)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CN(CNCC/N=C2\NC(=O)CS2NC)CN(C1=O)C)OC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCNC=3N(C)C4=C(N=3)N(C)CN(C4=O)C)OC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(N1CCNC3=NC=4N(C(N(C)C(=O)C=4N3C)=O)C)=O)C=CC=C2</t>
+  </si>
+  <si>
+    <t>O=CC=C(C(NCCNC=1N(C)C2=C(N=1)N(C)CN(C2=O)C)=O)OCNC=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)CN)C=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)N)C=O</t>
+  </si>
+  <si>
+    <t>O=CC=CN=CNCN(C)C1=C(N(C)C(N(C1=O)C)=O)N</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCNC=3N(C)C4=C(N=3)NC(=O)N(C)C4=O)CC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(NC(NCCCN3C(C4=CC=CC=C4C3=O)=O)=N2)CCN(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(NC(NCCCCN3C(C4=CC=CC=C4C3=O)=O)=N2)CCN(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(NCCNC2=NC=3N(C(N(C)C(=O)C=3N2C)=O)C)=O)C1=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCN2C(C3=C(C=CC=C3)C2=O)=O)N1C)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC=O)N(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC=O)N(C1=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C=2N(C)C(=O)N(CC=2SN=1)C=CO</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C)C(NC1=O)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC3=NC4=CC=CC=C4S3=N)C=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)C2C=NC(=O)NC(=O)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)CCNC2=NC3=C(N2C)C(=O)N(C)C3=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2C)N(C(=O)N1)CC=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCNC(C)=O)N1)CN(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N(C(=N1)NCCCCCCNC)C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCCNCCCN)N1C)N(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCN2C(C=CC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C)CC=1N(C(NCCCCNCCCN)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(SC(=S)N2CCCC2)=N)=O)C)O</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)N(C(=O)C=1N(C(NCCCNC(=O)C)=N2)CC)C</t>
+  </si>
+  <si>
+    <t>CN(CN(C)C=1NC(N(C)C=1NC)NCC/N=C2/SCCN2)OC=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)NC(=O)C=1N(C(NCCCNC(=O)C)=N2)CCC</t>
+  </si>
+  <si>
+    <t>C1NCN(C)C=2N(C(N(C)CCCNC)=NC=2C1=O)OC=O</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C(C=1N(C)C(NCCCCNCCCN)=N2)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C)C(C=1N(C(NCCCCNCCCN)=N2)C=O)C</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)NC(C=1N(C)CNCCCNC(=O)C)=N2</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)N(C)CC=1N(C)C(NCCCNC(C)=O)=N2</t>
+  </si>
+  <si>
+    <t>CNC1(N(C)C(=O)C=2N(C(NCCCCNCCCN)=NC=21)C=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C(=O)N(C)C2=S)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C)C(N(C1=S)C)=S</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N1C)SC</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C=1)C(SCCC)=NC=1NCC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C(=S)N(C)C2=S)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C=NCN(C(=O)N1C)C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N1C)SCC</t>
+  </si>
+  <si>
+    <t>CN(C=1)C=NC=2C(=O)N(C)C(N(C)C=2N=1)=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC3)=C(NC=2CN)C3N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC)=NCC(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC1)=C(C=CC=C1)NCC(=O)NC=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C)C(N(C)C=2N1)=SC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCCN(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C12N(C=3)C(SC)=C(NC=3CN)C1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(N(CCN(C)C)C)=N2)C)N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N(C(=N1)NCCCCCCNC)C)CN(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N(C(=N1)NCCCCCCNC)C)CNC(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCCNC(C)=O)NC)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCCNC(C)=O)N)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2C)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)C1=CC(=O)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC=CC(N(C)C(=O)NC)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCCCNCCCCNCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCNCCCCNCCCN=N)C=1N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(=O)N1C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)C1=CC(=O)N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCCCNCCCCNCCCN=N)C2=C1C(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C2=O)CC</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NC2=C(N1C)N(C)C(=O)NC2=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C1=O)CC</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NCN(C)C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(N2C)=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC1=C[NH1]C=N1)=NCN(C(=O)NCC)OC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC2=C[NH1]C=N2)=NCN(C(=O)N1CC)OC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC1=C[NH1]C=N1)=NCN(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCC/N=C1/SCC(=O)N1)=NC=CC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCNCCCNCCN)N2CNC(=O)N(C1=O)C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC=CC(=O)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C)C(N(C2=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C1=3)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(=O)C3=C(C=CC=C3)C2=O)NCCN(C1)OCCC</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CCCCN=[N+1]=[N-1]</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(C3=C(C2=O)C=CC=C3)=O)NCCN(C1=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CCCN=[N+1]=[N-1]</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCCN2C(=O)C3=C(C=CC=C3)C2=O)NC=1CN(CCC)O</t>
+  </si>
+  <si>
+    <t>C=1N(CCNC(=O)CSC(N2CCCC2)=S)CN(C)C3=C(N(C(N(C)C3=O)=O)C)N=1</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CC=CC=C</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(N(C)CCCNC=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)CNCC=O</t>
+  </si>
+  <si>
+    <t>CNC(NCCCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(NCCCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCN2C(=O)C3=CC=CC=C3C2=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2)CN(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC=2[NH1]C3=C(N=2)C=CC=C3)N1C)N(C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCCN2C(C=CC2=O)=O)N1C)N(C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC=3[NH1]C4=CC=CC=C4N=3)N2C)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(C=CC2=O)=O)N1C)N(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC=2[NH1]C3=C(N=2)C=CC=C3)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(CC)O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>C1N(C2)C1(NCC=CCCCN=N)CN(C)C(=N2)OOC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(C)C=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1NC2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(N(C)C=O)=O</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C(=O)NCC)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(=O)N(C)C(=O)C=1N(C(NCCN)=N2)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C1N(C2)C(SC=C2C)=NC=3N(C)C(=O)N(C)C(C1=3)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCNCCCN)N2C)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(NCCCCN1C(CCC1=O)=O)NC)N(C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC3=C1C(=O)N(C(=O)N3C)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(C)C=2N(C)C(=O)N(CC=2N=1)CNCC/N=C3/SCC(N3)=O</t>
+  </si>
+  <si>
+    <t>CN(C=1)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C)C=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)O</t>
+  </si>
+  <si>
+    <t>C1N(CCC1)CC(=O)N(C)C2=C(N)C(N(C)C(=O)N2)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SC(=S)N2CCCC2)=NC=C1C(=O)N(C(=O)NC)C</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCCCNCCCCNCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)C</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C2=C(N=1)C(=O)N(C(=O)N2C)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1C=2NC(N(CCCNC)C)=NC=2C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)C(=O)N(C(=O)N2C)C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C=C(N=1)C(=O)N(C(=O)NC)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(N(C)C2=O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)CC=2N(C3=C(N=2)C(=O)N(C(=O)N3C)C)CC1</t>
+  </si>
+  <si>
+    <t>C12N(C)C=3CN(C)C2(N(C)C=3N1C=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C2=C(N=1)C(=O)N(C(N2C)=O)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1C=2NC(N(C)CCCNC)=NC=2C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(=O)N(C2=O)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C)C=1N(C)C2=C(N=1)C(=O)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C123N(C)C(NCC=CC1=N2)CN(C)C3(O)OC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCN2C(=O)C=CC2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC1=CC=CC=C1)=NCC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>C12N(C)C1(NCC=CCCCN=N)CN(C)C2=O</t>
+  </si>
+  <si>
+    <t>C12N(C)C(SC(=N1)C=CC=C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(S1C=CC=N1)CCCNC(=S)N2CCCC2N</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NCN(C)C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NC1C=CC=CC1)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CC=NC(=O)N(C)C(=O)NCC</t>
+  </si>
+  <si>
+    <t>CN(C)C(S1C=CC=N1)CCCNC(=S)N2CCCC2</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(=O)NC=O</t>
+  </si>
+  <si>
+    <t>CN1CC(=O)N(C)C(C1NCCCCCCNC)C=O</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>C1NCCN(C)C(N(CCCCCCNC)C)=NCC(N1)C</t>
+  </si>
+  <si>
+    <t>C=1CN(C)C(=O)N(C)C=1NCCN(C)CC=O</t>
+  </si>
+  <si>
+    <t>C=1N2CCN(C)C(=O)N(C)C=1N2C</t>
+  </si>
+  <si>
+    <t>C1N2CC(=O)N(C)C1C=C2N(CCN(C)C)CN</t>
+  </si>
+  <si>
+    <t>CNC(N1CC2=C[NH1]C=N2)=NC3=C1C(N(C(=O)N3C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)S2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC=2[NH1]C3=C(C=CC=C3)N=2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(N(C)CCCNC)=NC1=CN(C(N(C)C1=O)=O)CC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(=N2)NCCN3C(C4=CC=CC=C4C3=O)=O)C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C4=C(C=CC=C4)C3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)N1C)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(=N2)NCCCN3C(C4=CC=CC=C4C3=O)=O)C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CNCCNC(CSC(N1CCCC1)=S)=O)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCNC(CSC(=S)N3CCCC3)=O)N2)CN(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(NCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(=C4)CN=[N+1]=[N-1])N=N3)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=CC(=C5)CN=[N+1]=[N-1])N=N4)N1C)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(=C4)CN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(CN=[N+1]=[N-1])=C4)N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC)=NC=1N(C)C(N2C)=S</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C)C(N(C2=S)C)=S</t>
+  </si>
+  <si>
+    <t>CN(C1)C=NCN(C(=O)N1C)C=SC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC)=NC=1N(C)C(N(C2=O)C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N(C)C1=S)C</t>
+  </si>
+  <si>
+    <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(NCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)C=1NC(NCCCNCCCCNCCCN)=NC=1N(C(NC=O)C=O)C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN(C(NCCN1C(CCC1=O)=O)=NC2=CNC)CN(C)C(N2C)=O)OC</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>CNCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CC(NCCCCNC1=NC2=C(N1C)CN(C(N2C)=O)C)=O</t>
+  </si>
+  <si>
+    <t>CC(NCCCNC1=NC2=C(N1C)C(N(C(N2C)=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C1C(=O)N(C)C(=O)CN(CNCCCCCN)N1C</t>
+  </si>
+  <si>
+    <t>CN1C(N(CCCNC)C)=NC=2C(=O)N(C)C(N(C=21)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CC(=O)N(C)C(=O)CN(CNCCCCCN)NC</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C(=O)N4C)C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)[NH1]2)=NC4=C1C(=O)N(C(=O)N4C)C</t>
+  </si>
+  <si>
     <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
   </si>
   <si>
-    <t>CNC=1N(C)C(=NC=1N(C(N(C)C=O)=O)C)NCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2C(N(C1=O)C)=O)NCCCN3C(CCC3=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(=NC2=C1C(N(C)C(=O)N2C)=O)NCCCNCCCCNCCN</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2)CN(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC1=C(N(C)C(=N1)NCCCN2C(C3=CC=CC=C3C2=O)=O)C(\S)CCC=C</t>
-  </si>
-  <si>
-    <t>C1NC(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1NC2=C(N(C)C(=N2)NCCCCN3C(C=CC3=O)=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(C)=O)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(=O)C)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(=O)CS2)=NC3=C1CN(C)C(N3C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCN2C(C=CC2=O)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1)C(N(C)CCCCCCNC)=NC=C1N(C)C</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC(NCCCCNC(C)=O)C1=NC2=C(N1C)N(C)C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(=O)CS2)=NC3=C1CN(C)C(N3C)=O</t>
+    <t>C12N(C=3)CC(=O)N(C)C(C=3N1C(NCCN)=N)CC2=O</t>
+  </si>
+  <si>
+    <t>C1N(C)CCCN(C)C2=NC3=C(N(C)C(N(C)C3=O)=O)N2C=C[NH1]1</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(N4C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C=1CN(C)C2=NC3=C(N(C)C(N(C)C3=O)=O)N2C=C[NH1]C=1</t>
+  </si>
+  <si>
+    <t>CN(C)CCCN(C)C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C=CN(CNCCCCCN)NCC=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=CC=CC=C4N3CC5=CN(CCCN=[N+1]=[N-1])N=N5)N2CNC)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(=O)N(C)C(=O)C=1N(C(NCCN)=N2)CC=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCC=CCCCN=N)CNC(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N(C=1)CCN(C)C=1N=CC=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)CN(C)C=CN(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CN(C(=O)N1C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)C=2C=NC(=O)N(C)CC=2O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCN2C(=O)C3=CC=CC=C3C2</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C)C(N(C=2N1C)O)CCCN</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)C=NC=CC(=O)N(C)C=O</t>
+  </si>
+  <si>
+    <t>C=1=NC=C(N=1)C=CC=C(CN=[N+1]=[N-1])C=C</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCCCN(C)C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C1=NC=2N(C)C(N(C)C(C=2N1C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)C)C1=NC=2N(C)C(N(C)C(=O)C=2N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCCCN(C)C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C1=NC=2N(C)C(N(C)C(C=2N1O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)C)C1=NC=2N(C(N(C)C(=O)C=2N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)CCN(C)C=1N(C)C2=C(N=1)N(C(=O)N(C)C2=O)CCN=[N+1]=[N-1]</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)CC=1N(C)C(SCC)=NC)=O)OC</t>
+  </si>
+  <si>
+    <t>CN(C(=NC=1N(C)C(N(C)C(=O)C=1)=O)CC)NC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=NC=1N(C(=O)N(C)C2=O)C)NCC=3N=C[NH1])C=3</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(C)CC=1N2C(NCCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(C(N(C(N2C)=O)C)=O)N1C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=C(CN=[N+1]=[N-1])C=C5)N=N4)C=O)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C(=O)N2C)C</t>
   </si>
   <si>
     <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O)C</t>
   </si>
   <si>
-    <t>CN(C)CCN(C=1N(C)C2=C(N=1)C(N(C)C(N2C)=O)=O)C</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(=O)N(C)C2=O)C</t>
-  </si>
-  <si>
-    <t>CN(C)CCNC=1N(C)C2=C(N=1)C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC(N(C)C(C=1N(C(NCCCCCN)=NC=1NC)C)=O)=O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCNC(C)=O)=O)O</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)NCCCNCCCNC=O)C)=O</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)NCCCNCCCNC=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(N(C)CCCCCNCC)=N)C=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)C(C=2N(C(NCCCCCN)=NC=2N1)C)=O)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(SC(N3CCCC3)=S)=N)CC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C)C(C=1NC(=N2)NCC/N=C/SCC=O)N)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCNCCCNC=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)N(CCN(C)C)C)C)=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(SC(N3CCCC3)=S)=N)C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCN=[N+1]=[N-1])C=3NC(=O)N(C=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)SC3=NC4=CC=CC=C4[NH1]3</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CCNC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1C)C=NC=3NC(N(C(C=32)=O)C)C=O</t>
-  </si>
-  <si>
-    <t>C1=NCC1N(C)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3NCC(NC)=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(C=3)CCCCCCCCCCCCNC(=O)NC</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3NC4=CC=CC=C4C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC13C=2CN(C)C(=O)N3C)ON(CCCCCCNC)C</t>
-  </si>
-  <si>
-    <t>C1=2N(C3C1C=2CN(C)C(=O)N3C)OSC(N4CCCC4)=SC</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)N(C)C=O)N(CCCNC)CC</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CN(CC3=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C=O)ON(CCCCCCCCNC)CC</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CN(C)C2=NC3=C(N(C)C(=O)N(C)C3=O)N2C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CCNC=2N(C3=C(N(C)C(N(C3=O)C)=O)N=2)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)OSC(=S)N3CCCC3C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)SC=NC3=CC=CC=C3[NH1]</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(C(N(C(=O)N2C)C)=O)N1C</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(=O)N(C)C2=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C)C(NCCCCCN)C=NCN(C1=O)C</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(C=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(CN=[N+1]=[N-1])=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2)CN(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CCS/C(=N/CCNC=1N(C)C2=C(N(C(=O)N(C2=O)C)C)N=1)OS</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)ONCCCNCCCNC</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)CC=2N=NN(C=2)C(=O)N(C(NC)=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC=2)N(C)C=3N(C)C(=O)N(C)C(C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCC=1CCN)CC=NC=2C(=O)N(C)C(=O)N(C)C=2N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CNC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CCC(=O)N3C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)CNCCCCCNCCNC</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CNC(=O)N3C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC2)N(C)C=3N(C(N(C(C=3N2)C)O)=O)CC</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4NC3C(C)C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CNC=2N(C=3C(=O)N(C(N(C)C=3N=2)=O)C)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC)C=O</t>
-  </si>
-  <si>
-    <t>C1N(C=2C1CC)CN(C)C=NC3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=3N=NN(C=3)CCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C=1N(C)C2=C(N=1)C(=O)N(C(N2C)=O)C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(=O)N(C)C2=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>CN1C=C(N=C1NCCCCCCN)N(C(=O)N(C)C=O)C</t>
-  </si>
-  <si>
-    <t>CN1C=2C(=O)N(C)C(=O)N(C)C=2N=C1NCCCCN</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(N(C)C=O)C(=O)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C=SN(C)C(N)C=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C)C(=O)NC=3N2</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC2=C(N(C)C(=O)N(C)C2=O)N</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C)C(=O)N(C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C=12N(CCNCCCNCCCN=N)C=1N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)NC(N(C=32)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C=SN(C)C(N)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CC2=C(C(=O)N(C)C(=O)N2C)ON</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C)C(N(C)C(=O)C=2N)C=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NCN(C(N(C=O)C)=O)CCC</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)N2C=C(N1C)C(=O)N(C)C(N2)C</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CCN(C2=O)C)CCCN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCN1C)NC2=C(C(N(C)C(N2C)=O)C)ON1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCC1NC)NC2=C(C(N(C)C(N2C)=O)=O)N1C</t>
-  </si>
-  <si>
-    <t>CN(CCC=1CNCNC)C2=C(C(N(C)C(=O)N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC3=CN2C)C(=O)N(C)C(N3C)=O</t>
-  </si>
-  <si>
-    <t>C1=NC1SC=NC=CC=CC=C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C(N1C)N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C=1N(C2=C(N=1)ONC(=O)N(C)C2=O)CC</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NCN(C)CN(C)C(C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(=O)N1C)N</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(N1C)=O)C</t>
-  </si>
-  <si>
-    <t>C1(SCNCC2)N=NN(C2=O)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCC2CNCNC)C=C2N(C)C1=O</t>
-  </si>
-  <si>
-    <t>C(NCC=1CCCN)=NC2=C(C(=O)N(C)C(N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC=2C3CNCNC)C=C3N(C)C=21</t>
-  </si>
-  <si>
-    <t>CN(CC=1C2CNCNC)C=C2N(C)C=1N</t>
-  </si>
-  <si>
-    <t>C1N(CC2C1=O)CCC(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCC1C=2NCNC)C=C1N(C)C=2</t>
-  </si>
-  <si>
-    <t>C(SCNCC1)N=NN(C1=O)C=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1N(C)CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(C2CCCCNC=N)C=C1C(=O)N(C)CN2</t>
-  </si>
-  <si>
-    <t>C(NCCCC1CN)=NC2=C(C(=O)N(C)C(N2C)=O)N1C</t>
-  </si>
-  <si>
-    <t>C=12N(CCCCCNC=N)C=1C(=O)C2=O</t>
-  </si>
-  <si>
-    <t>C1(SCNCC2)N=NN(C2=O)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>C(SCNC1C=2)N=NN(C=2)C3=CC=CC=C3N1C</t>
-  </si>
-  <si>
-    <t>C(NCCC=1CCN)=NC2=C(C(=O)N(C)C(N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NCN(C)CN(C)C(=O)C1</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)C(=O)N(C)C(=O)C1=3</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(N(C2=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(N(C)C2=O)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1C2=CC=CC=C2)C=NC=3N(C)CN(C)C(=O)C=3N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(C=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CCN(C)C1=CNC(=O)N(C1=O)C)CN</t>
-  </si>
-  <si>
-    <t>CN(C1CN(C)C=CC2=C(NNC2=O)C=O)N1CC</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3CN(C)C(N(C=3N=2)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCC=1C(=O)N(C(=O)N(C)C=1N)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1CNC)C=O</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C=2CN(C)C(N(C=2N=1)C)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C(N(C2=3)C)=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=32)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C(=O)CSC=CC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C)C(N(C=32)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C(=O)CSC=CCN(C)C=O</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CC1=O)CC=3CC(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)CCC=2CN(C)C(=O)N(C=2N=1)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C)C(N(C=3N2C)C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1]</t>
-  </si>
-  <si>
-    <t>C1N(CC1C(=O)N)CCCCNCCCCNC=NCN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1N(C)C)CN(C)C=C(/C=C(/C(OC)=O)S)[N+1](=O)N2C</t>
-  </si>
-  <si>
-    <t>C1N(CC1C2=NC=3NC)C(N(C)C(C=3N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1]</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C(N(C=32)C)=O)C</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCCCN)CC1=NC2=C(C(=O)N(C)C(=O)N2C)N1C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC2=C(N(C)C(N(C2=O)C)=O)N</t>
-  </si>
-  <si>
-    <t>C1N(CC1CCCNC)CNC2=NC3=C(C(N(C(=O)N3C)C)=O)N2C</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C=2)C(=O)N(C)C(N(C)C=2)C=C[N+1](O)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=3N=NN(C=3)CCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C)C(N(C=3N=2)C)=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1N(C)C=3)C(=O)N(C)C(N(C)C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=CN(CCCCCN=[N+1]=[N-1])N=N</t>
-  </si>
-  <si>
-    <t>CN1C(NCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCNCCCCNCCCN)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=CSC2=NC3=CC=CC=C3N2CC4=CN(CCCC=5CCCCN=[N+1]=[N-1])N=N4)CCC(=O)N(C)C1=5</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N=N3)CCC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=CSC2=NC3=CC=CC=C3N2CC4=CN(CCCCCCCCN=[N+1]=[N-1])N=N4)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>O=CC=CCN1C2=CC=CC=C2N=C1SC=3N(C4=C(N(C)C(N(C)C4=O)=O)N=3)CN=NN</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(SC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N=N3)CCC)C(N(C)C=O)=O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)N)CC)C)N=O</t>
-  </si>
-  <si>
-    <t>C=12N(CNC(=O)C=1NC(=N2)NCCCCCN)CC=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(NC(=O)C=1NC(=N2)NCCCCCN)CC)O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)S)C)CC=O)O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)S)CC)O)C=O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)C=1N(C)C(=NC=1)NCC)CC)N)OC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1NC(=N2)NCCCCCN)CC)O</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCC)N=NC=1N(C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>CN(CCN(C1)C=CN=N1)CCCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C(N(C)C2=O)=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C)C2=CN(C(=O)N(C2=O)C)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC)NC1=C(N(C(N(C)C1=O)=O)C)OC</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C)C2=CN=1)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC3=CN2C)N(C)C(=O)N(C3=O)C</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C2)C=CN=1)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>C1N(C1S=2C=NC3=CC(N(C)C(=O)N3C)=O)N=2</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)C(=O)N(C)C(=O)C=2</t>
-  </si>
-  <si>
-    <t>C1N(C1S=2C=NC3=CC(N(C)C(N3C)=O)=O)N=2</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(N(C)C(N(C2=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C2=O)C)OCC=O</t>
-  </si>
-  <si>
-    <t>C1NCC=CC1=SNC2NC=CC(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C12N(CC1N=NC=O)N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C=1N(CCCCCCCCN)C=NC=2C(=O)N(C(N(C)C=2N=1)=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)NC(=O)N(C)C=3N=2</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C2=NC=3N(C)C(N(C(C=3N2C)=O)C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC=2C(=O)N(C(=O)N(C)C=2N)C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CCCNC)CNC2=NC3=C(C(=O)N(C)C(=O)N3C)N2C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C)C(N(C)CC=2N)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(=O)N3C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(=O)C=CC3=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C=1N(C2=C(N=1)ONC(=O)N(C)C2=O)CCC</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NCN(C)CN(C)C(=O)C1=O</t>
-  </si>
-  <si>
-    <t>C123N(C1C=C2CN(C)CN(C)C3=O)OC</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1)C=C(N2C)NN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC1)NC2=C(C(N(C(=O)N2C)C)=O)N1</t>
-  </si>
-  <si>
-    <t>C=1N(CC2=CC=CC=C2)C=NC=3N(C)CN(C)C(=O)C=3N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=C2C[NH1]C1)CCC=NC3=C(C(=O)N(C)C(N3C)=O)N2</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC[NH1]C1)CC=NC2=C(C(=O)N(C)C(=O)N2C)N</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(C(N(C(=O)N2C)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC)NC1=CN(C(N(C1=O)C)=O)C</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC2=C(C(=O)N(C)C(=O)N2C)N</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)CCC2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC1=O)N(C)C2=C(C(=O)N(C)C(=O)N2C)N1</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CCCNCCC3=CC=CC=C3CNC)C=21</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC1=O)N(C)C2=C(N(C)C(=O)N(C)C2=O)N1</t>
-  </si>
-  <si>
-    <t>CN(CC1=C2C=CC=C1)CCN(C)C3=C(N(C(=O)N(C)C3=O)C)N2</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)NC2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(N(C)C=O)CN(C)CC</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)C1=C(N(C)C(=O)N(C)C1=O)N</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)NC2=C(N(C)C(N(C)C2=O)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CCN=NN(N=N)CC2=CC=CC=C2CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1N2CC3=CC2CNCCC4=CC=CC=C4CNC13</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN1C2=C(C(=O)N(C1=O)C)N(C)C(=N2)NCCCNCCCNC</t>
-  </si>
-  <si>
-    <t>C1(CNC2)N=NN(C2=O)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C2=C1C(=O)N(C)C(C2=O)N</t>
-  </si>
-  <si>
-    <t>C(SCNCC=1)N=NN(C=1)C(CSC2=CC=CC=C2C)=S</t>
-  </si>
-  <si>
-    <t>CN(C1CC2CNCNC)C=C2N(C)C1=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C3=CC=CC=C3N2</t>
-  </si>
-  <si>
-    <t>C(CNC=1)N(C)C2=C(N=1)C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1(CNC2)N=NN(C2=O)C(N(C)C1=S)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CNC</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C2=C1CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCNC(CSC(N3CCCC3)=S)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCN2C(C3=CC=CC=C3C2=O)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)NCNC=O</t>
-  </si>
-  <si>
-    <t>C12N(CC3=CC1C=C34)C(=S)N(C(=O)N4CC=O)CCC2=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C(N(C)C=3N=2)=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC1C=C2)C(=S)N(C(=O)N(C)C=O)CC=O</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=S)N(C3=O)C=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1CC=3)N(C)C=4N(C)C(N(C)C(C=4N=3)=O)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=S)N(C(=O)N3C)C=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCNC=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCNC=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1])C=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)CCN(C=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CNC(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC1=CC(N(C)C(N1C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC(SC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N)=N3</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNCCCCNCCCN)N1)CN(C(=O)NC)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCN2C(C=CC2=O)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC=2SC3=C(N=2)C=CC=C3)N1C)N(C(=O)NC)C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(S2)C=CC=C3)N1C)N(C(=O)NC)C</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2N(C(N1C)=O)C)NCCCNCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C(=NC2=C1C(=O)N(C(N2C)=O)C)NCCN3C(CCC3=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2C(N(C1=O)C)=O)NCCCNCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2N(C(N1C)=O)C)NCCCN3C(CCC3=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C1C=CC=O)CCC=2C(=O)N(C)C(=O)N(C)C=21</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCC=1C(=O)N(C)C(=O)N(C)C=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC2N=NNC2CCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1N(CCN2CCCC2=O)C=NCN(C)CN(C)C(C1)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=1N=NN2CCCN=[N+1]=[N-1])C=1C(=O)NCC(C)N(C)C2</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC1=O)CCC=3C(=O)N(C)C(=O)N(C)C=3N2</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC=O)CC=2CC(=O)NC(=O)N(C)C1=2</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=O)N(C)C=2C(=O)N(C)C(=O)N(C)C=2N1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)C(=O)N(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC=2N=NN(C=2)CCCCCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)NC(N(C)C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CCCNCC=1N=NN(C=1)CCCCC)N=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C=12NCN(C(=O)C=1N(C(=N2)NCCCNCCCNC)C)O</t>
-  </si>
-  <si>
-    <t>CN(C(N(C(=O)C=1N(C(=NC=1)NCCCNCC)C)N)C)C</t>
-  </si>
-  <si>
-    <t>CN(C(NC(=O)C=1N(C)C(=NC=1)NCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>CN(CN(C(=O)C=1N(C(=NC=1)NC)CCNCC)C)NCC</t>
-  </si>
-  <si>
-    <t>CN(C(N(C(=O)C=1N(C)C(=NC=1)NCCNCC)C)N)C=O</t>
-  </si>
-  <si>
-    <t>CN(CN1C(=O)CN(C(SC)N(C)CC)C=CNC)C1</t>
-  </si>
-  <si>
-    <t>C=12NCNC(=O)C=1N(C(=N2)NCCCCCCNCC)O</t>
-  </si>
-  <si>
-    <t>C=12NCN(C(=O)C=1N(C(=N2)NCCCCCCNCC)O)C</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1C(=O)N(C)C(=O)C2</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CN(C)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C1C(N2C)=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C2)CN(C)CN2C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CN(C)CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CN(CCCCNC=1NC)C2=C(N(C)C(N(C)C2=O)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1CN(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C(N2C)=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C3=CC=CC=C3N2C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1CN(C)C(N2C)=S</t>
-  </si>
-  <si>
-    <t>CN(C(N(C)C(C=1N(C(NCC2=C[NH1]C=N2)=NC=1)C)=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)CC=1NC(=N2)NCCCCCCCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)C(C=1N(C(=N)NCCCCCCNC)C)C)=O)O</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)CC=1NC(=N2)NCCCCCCCCCC)C)C</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)C(C=1N(C(=N)NCCCCCCNC)C)=O)C)O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCCNC)C)OC</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCNCC)C)O</t>
-  </si>
-  <si>
-    <t>C=12NC(=O)N(C(C=1N(C(SCC(C)(C)C)=N2)O)C)C</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)C(C=1NC(=N2)N(CCN(C)C)C)C)=O)O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(=O)N(C(C=1NC(SCC(C)(C)C)=N2)=O)C)C</t>
-  </si>
-  <si>
-    <t>C=12NCN(C)C(C=1N(C(=N2)N(CCN(C)C)C)C=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C1C2=CC=CC=C2)C=NC=3N(C)C(=O)N(C)C(=O)C=31</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)CN(C(=O)C1=3)C</t>
-  </si>
-  <si>
-    <t>CN(C=1C2=CC=CC=C2)C=NC=3N(C)C(N(C)C(=O)C=3N=1)=O</t>
-  </si>
-  <si>
-    <t>C=12N(CC3=CC=CC=C3)C(C)CC(=O)C=1N(C)CCN2</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)C=O</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)C(=O)NC(=O)C1=3</t>
-  </si>
-  <si>
-    <t>C#1N(CC2=CC#1)NC2N(C)C(=O)NCC=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(=O)C=2</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1)C3=C(C(=O)N(C)C(=O)N3C)C=C2</t>
-  </si>
-  <si>
-    <t>CN(CCN(C)C=C1C=C(NNC)CCOO)C1=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C=SN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)N1C)NC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)N1C)NC(=O)N(C)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(CN=[N+1]=[N-1])C=CC=C5)N=N4)N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(C=CC=C5)CN=[N+1]=[N-1])N=N4)N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(N=N4)CCCCCCCCCCCCN=[N+1]=[N-1])N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+1]=[N-1])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC(CN=[N+1]=[N-1])=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(=O)N(C)C2=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CN1C2=C(C(=O)N(C1=O)C)N(C)C(=N2)NCCCCCNC</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C=1N(C)C2=C(N=1)C(=O)N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C2=C(C(=O)N(C1=O)C)NC(=N2)NCCCCCNC</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC=2C(=O)N(C(=O)N(C)C=2)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)N=NNC(=C)C=CC(=S)NCCCCCCCNC</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C(N(C2=3)O)C)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC2=CC#1)C=SN(C)C(=O)N(C)C2N(C)CC</t>
-  </si>
-  <si>
-    <t>CN(CCN(C1)C=CN(C)CN(C1=O)C)ONCCCC</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C(N(C)C(C=2)=O)=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3CN(C(N(C)C=3N=2)=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCCCNC(N(C2C=O)C)C</t>
-  </si>
-  <si>
-    <t>O=C1C=C(N=CNCCCCNC(CSC(N2CCCC2)=S)=O)CCC(=O)N1C</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(NCCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C4=C(C3=O)C=CC=C4)=O)N2C)N(C)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=CNCCCCNC(CSC(N1CCCC1)=S)=O)CC(=O)N(C=O)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)NC)NC(=O)N(C1=O)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(NCCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>C=1N(CN(C(=O)C=1N(C(NC)SCCC)C)C)OC</t>
-  </si>
-  <si>
-    <t>C=12N(C(NC(=O)C=1NC(=N2)NCCCCCC)NC)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C(=O)C=1NC(=N2)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1N(C(NCCN)=NC2)C)C)OC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1NC(=N2)NCCCCCC)NC)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN(C(=O)C=1N(C(=N)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N2CN(C)CC=1NC(=N2)NCCCCCNC=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1NC(N2C)SC=CC=CC)SC=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1N(C(N2C)SC=CC=CC)N)CC</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(CN=[N+1]=[N-1])C=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(C=CC=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NCNCCCN(C)C(=O)N(C)C</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC=CN2C)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1N(C(=N2)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1NC(N2C)SC=CC=CC)CSC</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(N(C(N(C)C2=O)=O)C)N=1</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC3=CN2C)C(=O)N(C)C(=O)N3C</t>
-  </si>
-  <si>
-    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(N(C)C2=O)=O</t>
-  </si>
-  <si>
-    <t>CN(CCN(C)C=CC1=C(NNC1=O)C=O)NCC</t>
-  </si>
-  <si>
-    <t>C1N(C1SC=NC2=CC(N(C)C(=O)N2C)=O)NCC</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCCCN)C=NCC(=O)NC(N(C)CN1C)=O</t>
-  </si>
-  <si>
-    <t>C=1N(C=C(N=1)ONC(=O)N(C)C=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C1N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCN1C=N)C2=C(C(N(C)C(N2C)=O)=O)C1</t>
-  </si>
-  <si>
-    <t>CN(C1CCCC2CNN)CCC=C2N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(C(N(C)C(=O)N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)NC2=C(C(N(C)C(=O)N2C)=O)N1</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CCN(C2=O)C)CCN(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCN2C=N)C=C1C(=O)N(C)C(N2)C</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCCCN)C=NC=2C(=O)NC(N(C)C=2N=1)=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C=O)ON(CCCCCCCCNC)C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3CC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3CC(=O)NCC=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCN=[N+1]=[N-1])C=3SC4=NC5=CC=CC=C5[NH1]4</t>
-  </si>
-  <si>
-    <t>C1(CNC2)N=NN(C2=O)CN(C)C1=S</t>
-  </si>
-  <si>
-    <t>C1(CNC)N=NN(C1C)NN(C)CSC</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(C1=O)=O)NC</t>
-  </si>
-  <si>
-    <t>CN(C1CCCCNC=N)C2=C(C(=O)N(C)C(C2=O)=O)N1</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1C(NC)C2=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)C=CC=CC</t>
-  </si>
-  <si>
-    <t>CN(CC=1N=NN(C=1)CC)CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>C=12N(CC=CCCNC(N3CCCC3)=NC=1)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CC=CCCNC(C=O)=CNC)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CCCNC)C2=C1N(C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC(C1)C)NC(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1(SCNCC2)N=NN(C2C)OCN1C</t>
-  </si>
-  <si>
-    <t>C1N(CCC2CNCNC)C=C2N(C)CN1</t>
-  </si>
-  <si>
-    <t>C(N1CCCCCN)=NC2=C(C(=O)N(C)C(N2C)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)S)CC)C)OO</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)SC)C)C)OO</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)NC)C)C)N=O</t>
-  </si>
-  <si>
-    <t>CN1CCNC(=S)N(C)C(=O)N1CNCCC=O</t>
-  </si>
-  <si>
-    <t>C1NCCN(C(=O)CCC(N1C)=O)C</t>
-  </si>
-  <si>
-    <t>C1NC(C=2N(C)C(=NC=2N1C)NCCCNCCCN)=O</t>
-  </si>
-  <si>
-    <t>C1N(C(C=2N(C)C(=NC=2N1C)NCCCNCCCN)=O)C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C(=O)N(C)C(N(C)CN)=C1SCC)C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C(=O)N(C)C(N(C)CN)=C1SC)C=O</t>
-  </si>
-  <si>
-    <t>CNC1C=2N(C(=O)N(C)C(N(C)C=2N)=C1SCC)C</t>
-  </si>
-  <si>
-    <t>CN1C(NCCNCCCNCCN)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>C=1N2C(=O)NC(C=1N(C(=N2)NCCCNCCCNCC)O)C</t>
-  </si>
-  <si>
-    <t>C=12N(CC3=CC=CC=C3)CCN=NNC=1CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)C=1C(=O)NC(=O)N(C)C=1N</t>
-  </si>
-  <si>
-    <t>C1N(C2C13N=NC4=C3)C=CC=C4N(CCSCCNC2=O)CC</t>
-  </si>
-  <si>
-    <t>C12N(CC13N=NC4=C3)C=CC=C4N(CC=CC=CC=C)OC(N2C)C</t>
-  </si>
-  <si>
-    <t>C123N(CC1N(C)C=4)C(=O)N(C)C(CN(C)C=42)NC3</t>
-  </si>
-  <si>
-    <t>CN(CCC=1CCCCCN)CC=NC2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=O)N(C(=O)N3C)CC(=O)CNC=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)N=NN(C)C(=O)N(C)C(=O)NCC=C2</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCCCC)NC1=NC2=C(C(N(C)C(=O)N2C)=O)N1C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1CCCCN)CCN(C)C3=C(N(C(=O)N(C)C3=O)C)N=2</t>
-  </si>
-  <si>
-    <t>C123N(CC14N=NC5=C4)C=CC=C5N(CCSCCN2)C3C=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C(=O)C=2N)C</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC[NH1]C2C)NC=3N(C)C(=O)NC(=O)C1=3</t>
-  </si>
-  <si>
-    <t>C1N(CCN(C)C=CC2=C(NNC2=O)C=O)N1C</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)CC=2N=NN(C=2)C(=O)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)N(C)C=2N(C)C(=O)N(C)C(C=2N)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)N(C)C=2N(C)C(O)N(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)ONCCCCCCCCNC</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(\S)C(=O)OC)[N+1]([O-1])=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)CC=1NC(=N2)NCCCCCCCNCC)C)O</t>
-  </si>
-  <si>
-    <t>C#1N(C2C=CC#1)CCC=C2N(C)C(=O)N(C=O)CC</t>
-  </si>
-  <si>
-    <t>C#1N(CC2=CC#1)CCC2N(C(N(C=O)C)=O)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC(=O)N(C)C(N(C=O)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(N(C)C2=O)C(=O)CN(C)C2O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC(=O)N(C)C(N(C)C=O)C=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C)C(N(C(=O)C=2)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NCN(C(N(C=O)C)=O)CC=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC(=O)N(C)CN(CCCNC)CN</t>
+    <t>CN(CCCC=1N(C)C=2C(N(C(N(C=2N=1)C)=O)C)=O)CN(C)C=C([N+1]([O-1])=O)/C=C(/C(=O)OC)SC</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(N(CNCCC/N=C1\NC(CS1)=O)CC)C=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC1)=C(C=CC=C1)NCC(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C(N3C=2CN)C3N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C(NC=2N)CC(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C=1)C=NC=2C(=O)N(C)C(N(C=2N=1)C)=SC</t>
+  </si>
+  <si>
+    <t>CN(C=1)C(NCCCNCCCCNCCCN=N)C=1N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C=1)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCNC2=NC3=C(N2C)C(=O)N(C)C3=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C)C(NC1=SC)=O</t>
+  </si>
+  <si>
+    <t>CN(CSC1=NC=2N(C)C(=O)N(C)C(=O)C=2N1C)SCCC</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(=O)C=1N(C)C(NCCNCCN)=N)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3N(C)C(=O)N(C)CC=3N2C)=O)SCCC1</t>
+  </si>
+  <si>
+    <t>CN(C(N(C)C(=O)N1CN(C)C1NCNCC)N)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C)C(SCCC)=NCNC</t>
+  </si>
+  <si>
+    <t>C1N(C)C2(SC=CC2=O)C3=NC=C1N(C)C(=O)N3CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)CC=NC(=O)N(C)CN(C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CNC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>C1N(CNC(=O)N(C)CN=C[NH1]C2=C[NH1]C=C2CN1)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(CCNC=2N(C)C3=C(N=2)C(=O)N(C)C(N3C)=O)CC(C=1)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C(=O)C=1N(C)C(NCCNCCN)=N2)O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C(NC(=O)N(C)CN=C1CCNCCNN)C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C(=O)N(C)C=2N1C)CC</t>
+  </si>
+  <si>
+    <t>C=1NC(SC=1NC2=CC=CC=C2N)CC=CN(CC3=CC=CC=C3CN=[N+1]=[N-1])N</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=C2C=N1)CC=NC(=O)N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>C123N(C)C(NCC=CC1=N2)CN(C)C3=O</t>
+  </si>
+  <si>
+    <t>C1N(C2)C1(NCC=CCCCN=N)C(N(C)C(=O)N2C=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N2CN(C)C(=O)C=1N(C(NCCCCNCCCN)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(=O)C=1NC(NCCCNCCCNCCCN)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=1N(C2(N(C)C(=O)C=1NC(NCCCNCCCNCCCN)=N2)C)OC</t>
   </si>
   <si>
     <t>CN1C2=C(N=C1SC3=NC4=CC=CC=C4N3)N(C(=O)N(C2=O)C)C</t>
   </si>
   <si>
+    <t>CN1C2=C(C(=O)N(C(=O)N2C)C)N=C1N(C)C</t>
+  </si>
+  <si>
     <t>CN1C2=C(N=C1SC(=S)N3CCCC3)N(C(=O)N(C2=O)C)C</t>
   </si>
   <si>
-    <t>CC(C)(C)CSC1=NC2=C(N1)C(=O)N(C(=O)N2C)C</t>
+    <t>CN1C=NC2=C1C(=S)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN1C=NC2=C1C(=S)N(C(=S)N2C)C</t>
+  </si>
+  <si>
+    <t>CCN1C2=C(N=C1NCCN)N(C(=O)N(C2=O)C)C</t>
+  </si>
+  <si>
+    <t>CN1C2=C(N=C1N(C)CCN(C)C)N(C(=O)N(C2=O)C)C</t>
+  </si>
+  <si>
+    <t>CN1C2=C(N=C1SC)N(C(=O)N(C2=O)C)C</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2342,10 +2183,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>671864</v>
-      </c>
-      <c r="D33" t="s">
-        <v>501</v>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2664,10 +2505,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D56" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2692,10 +2533,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D58" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2790,10 +2631,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
+        <v>121215968</v>
+      </c>
+      <c r="D65" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3630,10 +3471,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
+        <v>135379403</v>
+      </c>
+      <c r="D125" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4806,10 +4647,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
+        <v>25768</v>
+      </c>
+      <c r="D209" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4862,10 +4703,10 @@
         <v>214</v>
       </c>
       <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <v>0</v>
+        <v>614598</v>
+      </c>
+      <c r="D213" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5254,10 +5095,10 @@
         <v>242</v>
       </c>
       <c r="C241">
-        <v>135379403</v>
-      </c>
-      <c r="D241" t="s">
-        <v>502</v>
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5268,10 +5109,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>135379403</v>
-      </c>
-      <c r="D242" t="s">
-        <v>502</v>
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5464,10 +5305,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>0</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
+        <v>135379403</v>
+      </c>
+      <c r="D256" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5758,10 +5599,10 @@
         <v>278</v>
       </c>
       <c r="C277">
-        <v>0</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D277" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5898,10 +5739,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>0</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
+        <v>82463881</v>
+      </c>
+      <c r="D287" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6178,10 +6019,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>0</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
+        <v>10517892</v>
+      </c>
+      <c r="D307" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6598,10 +6439,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>0</v>
-      </c>
-      <c r="D337">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D337" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6850,10 +6691,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>0</v>
-      </c>
-      <c r="D355">
-        <v>0</v>
+        <v>614598</v>
+      </c>
+      <c r="D355" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6878,10 +6719,10 @@
         <v>358</v>
       </c>
       <c r="C357">
-        <v>44722449</v>
+        <v>94929</v>
       </c>
       <c r="D357" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -7074,10 +6915,10 @@
         <v>372</v>
       </c>
       <c r="C371">
-        <v>0</v>
-      </c>
-      <c r="D371">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D371" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7088,10 +6929,10 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>0</v>
-      </c>
-      <c r="D372">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D372" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7144,10 +6985,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>0</v>
-      </c>
-      <c r="D376">
-        <v>0</v>
+        <v>671864</v>
+      </c>
+      <c r="D376" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7516,7 +7357,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B403" t="s">
         <v>404</v>
@@ -7530,7 +7371,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -7544,7 +7385,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B405" t="s">
         <v>406</v>
@@ -7558,7 +7399,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B406" t="s">
         <v>407</v>
@@ -7572,7 +7413,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B407" t="s">
         <v>408</v>
@@ -7586,7 +7427,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B408" t="s">
         <v>409</v>
@@ -7600,7 +7441,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B409" t="s">
         <v>410</v>
@@ -7614,7 +7455,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B410" t="s">
         <v>411</v>
@@ -7628,7 +7469,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
@@ -7642,7 +7483,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="B412" t="s">
         <v>413</v>
@@ -7656,7 +7497,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="B413" t="s">
         <v>414</v>
@@ -7670,7 +7511,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="B414" t="s">
         <v>415</v>
@@ -7684,7 +7525,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="B415" t="s">
         <v>416</v>
@@ -7698,7 +7539,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
@@ -7712,7 +7553,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="B417" t="s">
         <v>418</v>
@@ -7726,7 +7567,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="B418" t="s">
         <v>419</v>
@@ -7740,7 +7581,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="B419" t="s">
         <v>420</v>
@@ -7754,7 +7595,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="B420" t="s">
         <v>421</v>
@@ -7768,7 +7609,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="B421" t="s">
         <v>422</v>
@@ -7782,7 +7623,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="B422" t="s">
         <v>423</v>
@@ -7796,7 +7637,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="B423" t="s">
         <v>424</v>
@@ -7810,7 +7651,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1">
-        <v>441</v>
+        <v>525</v>
       </c>
       <c r="B424" t="s">
         <v>425</v>
@@ -7824,7 +7665,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1">
-        <v>446</v>
+        <v>530</v>
       </c>
       <c r="B425" t="s">
         <v>426</v>
@@ -7838,7 +7679,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="B426" t="s">
         <v>427</v>
@@ -7852,7 +7693,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1">
-        <v>454</v>
+        <v>537</v>
       </c>
       <c r="B427" t="s">
         <v>428</v>
@@ -7866,7 +7707,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1">
-        <v>455</v>
+        <v>538</v>
       </c>
       <c r="B428" t="s">
         <v>429</v>
@@ -7880,7 +7721,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1">
-        <v>458</v>
+        <v>549</v>
       </c>
       <c r="B429" t="s">
         <v>430</v>
@@ -7894,7 +7735,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="B430" t="s">
         <v>431</v>
@@ -7908,7 +7749,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="B431" t="s">
         <v>432</v>
@@ -7922,7 +7763,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="B432" t="s">
         <v>433</v>
@@ -7936,7 +7777,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="B433" t="s">
         <v>434</v>
@@ -7950,7 +7791,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1">
-        <v>477</v>
+        <v>569</v>
       </c>
       <c r="B434" t="s">
         <v>435</v>
@@ -7964,7 +7805,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="B435" t="s">
         <v>436</v>
@@ -7978,7 +7819,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="B436" t="s">
         <v>437</v>
@@ -7992,7 +7833,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1">
-        <v>489</v>
+        <v>584</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
@@ -8006,7 +7847,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="B438" t="s">
         <v>439</v>
@@ -8020,7 +7861,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1">
-        <v>496</v>
+        <v>598</v>
       </c>
       <c r="B439" t="s">
         <v>440</v>
@@ -8034,7 +7875,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1">
-        <v>498</v>
+        <v>599</v>
       </c>
       <c r="B440" t="s">
         <v>441</v>
@@ -8048,7 +7889,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="B441" t="s">
         <v>442</v>
@@ -8057,818 +7898,6 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="1">
-        <v>502</v>
-      </c>
-      <c r="B442" t="s">
-        <v>443</v>
-      </c>
-      <c r="C442">
-        <v>0</v>
-      </c>
-      <c r="D442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="1">
-        <v>507</v>
-      </c>
-      <c r="B443" t="s">
-        <v>444</v>
-      </c>
-      <c r="C443">
-        <v>0</v>
-      </c>
-      <c r="D443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="1">
-        <v>508</v>
-      </c>
-      <c r="B444" t="s">
-        <v>445</v>
-      </c>
-      <c r="C444">
-        <v>0</v>
-      </c>
-      <c r="D444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="1">
-        <v>509</v>
-      </c>
-      <c r="B445" t="s">
-        <v>446</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="1">
-        <v>511</v>
-      </c>
-      <c r="B446" t="s">
-        <v>447</v>
-      </c>
-      <c r="C446">
-        <v>0</v>
-      </c>
-      <c r="D446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="1">
-        <v>512</v>
-      </c>
-      <c r="B447" t="s">
-        <v>448</v>
-      </c>
-      <c r="C447">
-        <v>0</v>
-      </c>
-      <c r="D447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="1">
-        <v>513</v>
-      </c>
-      <c r="B448" t="s">
-        <v>449</v>
-      </c>
-      <c r="C448">
-        <v>0</v>
-      </c>
-      <c r="D448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="1">
-        <v>514</v>
-      </c>
-      <c r="B449" t="s">
-        <v>450</v>
-      </c>
-      <c r="C449">
-        <v>0</v>
-      </c>
-      <c r="D449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="1">
-        <v>515</v>
-      </c>
-      <c r="B450" t="s">
-        <v>451</v>
-      </c>
-      <c r="C450">
-        <v>0</v>
-      </c>
-      <c r="D450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="1">
-        <v>516</v>
-      </c>
-      <c r="B451" t="s">
-        <v>452</v>
-      </c>
-      <c r="C451">
-        <v>0</v>
-      </c>
-      <c r="D451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="1">
-        <v>518</v>
-      </c>
-      <c r="B452" t="s">
-        <v>453</v>
-      </c>
-      <c r="C452">
-        <v>0</v>
-      </c>
-      <c r="D452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="1">
-        <v>521</v>
-      </c>
-      <c r="B453" t="s">
-        <v>454</v>
-      </c>
-      <c r="C453">
-        <v>0</v>
-      </c>
-      <c r="D453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="1">
-        <v>524</v>
-      </c>
-      <c r="B454" t="s">
-        <v>455</v>
-      </c>
-      <c r="C454">
-        <v>0</v>
-      </c>
-      <c r="D454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="1">
-        <v>525</v>
-      </c>
-      <c r="B455" t="s">
-        <v>456</v>
-      </c>
-      <c r="C455">
-        <v>0</v>
-      </c>
-      <c r="D455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="1">
-        <v>528</v>
-      </c>
-      <c r="B456" t="s">
-        <v>457</v>
-      </c>
-      <c r="C456">
-        <v>0</v>
-      </c>
-      <c r="D456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="1">
-        <v>529</v>
-      </c>
-      <c r="B457" t="s">
-        <v>458</v>
-      </c>
-      <c r="C457">
-        <v>0</v>
-      </c>
-      <c r="D457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="1">
-        <v>530</v>
-      </c>
-      <c r="B458" t="s">
-        <v>459</v>
-      </c>
-      <c r="C458">
-        <v>0</v>
-      </c>
-      <c r="D458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="1">
-        <v>531</v>
-      </c>
-      <c r="B459" t="s">
-        <v>460</v>
-      </c>
-      <c r="C459">
-        <v>0</v>
-      </c>
-      <c r="D459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="1">
-        <v>532</v>
-      </c>
-      <c r="B460" t="s">
-        <v>461</v>
-      </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
-      <c r="D460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="1">
-        <v>536</v>
-      </c>
-      <c r="B461" t="s">
-        <v>462</v>
-      </c>
-      <c r="C461">
-        <v>0</v>
-      </c>
-      <c r="D461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="1">
-        <v>537</v>
-      </c>
-      <c r="B462" t="s">
-        <v>463</v>
-      </c>
-      <c r="C462">
-        <v>0</v>
-      </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="1">
-        <v>545</v>
-      </c>
-      <c r="B463" t="s">
-        <v>464</v>
-      </c>
-      <c r="C463">
-        <v>0</v>
-      </c>
-      <c r="D463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="1">
-        <v>546</v>
-      </c>
-      <c r="B464" t="s">
-        <v>465</v>
-      </c>
-      <c r="C464">
-        <v>0</v>
-      </c>
-      <c r="D464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="1">
-        <v>548</v>
-      </c>
-      <c r="B465" t="s">
-        <v>466</v>
-      </c>
-      <c r="C465">
-        <v>0</v>
-      </c>
-      <c r="D465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="1">
-        <v>551</v>
-      </c>
-      <c r="B466" t="s">
-        <v>467</v>
-      </c>
-      <c r="C466">
-        <v>0</v>
-      </c>
-      <c r="D466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="1">
-        <v>552</v>
-      </c>
-      <c r="B467" t="s">
-        <v>468</v>
-      </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
-      <c r="D467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1">
-        <v>553</v>
-      </c>
-      <c r="B468" t="s">
-        <v>469</v>
-      </c>
-      <c r="C468">
-        <v>0</v>
-      </c>
-      <c r="D468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1">
-        <v>554</v>
-      </c>
-      <c r="B469" t="s">
-        <v>470</v>
-      </c>
-      <c r="C469">
-        <v>0</v>
-      </c>
-      <c r="D469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="1">
-        <v>558</v>
-      </c>
-      <c r="B470" t="s">
-        <v>471</v>
-      </c>
-      <c r="C470">
-        <v>0</v>
-      </c>
-      <c r="D470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="1">
-        <v>578</v>
-      </c>
-      <c r="B471" t="s">
-        <v>472</v>
-      </c>
-      <c r="C471">
-        <v>0</v>
-      </c>
-      <c r="D471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="1">
-        <v>585</v>
-      </c>
-      <c r="B472" t="s">
-        <v>473</v>
-      </c>
-      <c r="C472">
-        <v>0</v>
-      </c>
-      <c r="D472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="1">
-        <v>587</v>
-      </c>
-      <c r="B473" t="s">
-        <v>474</v>
-      </c>
-      <c r="C473">
-        <v>0</v>
-      </c>
-      <c r="D473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="1">
-        <v>601</v>
-      </c>
-      <c r="B474" t="s">
-        <v>475</v>
-      </c>
-      <c r="C474">
-        <v>0</v>
-      </c>
-      <c r="D474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="1">
-        <v>603</v>
-      </c>
-      <c r="B475" t="s">
-        <v>476</v>
-      </c>
-      <c r="C475">
-        <v>0</v>
-      </c>
-      <c r="D475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="1">
-        <v>605</v>
-      </c>
-      <c r="B476" t="s">
-        <v>477</v>
-      </c>
-      <c r="C476">
-        <v>0</v>
-      </c>
-      <c r="D476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="1">
-        <v>606</v>
-      </c>
-      <c r="B477" t="s">
-        <v>478</v>
-      </c>
-      <c r="C477">
-        <v>0</v>
-      </c>
-      <c r="D477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="1">
-        <v>607</v>
-      </c>
-      <c r="B478" t="s">
-        <v>479</v>
-      </c>
-      <c r="C478">
-        <v>0</v>
-      </c>
-      <c r="D478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="1">
-        <v>609</v>
-      </c>
-      <c r="B479" t="s">
-        <v>480</v>
-      </c>
-      <c r="C479">
-        <v>0</v>
-      </c>
-      <c r="D479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="1">
-        <v>611</v>
-      </c>
-      <c r="B480" t="s">
-        <v>481</v>
-      </c>
-      <c r="C480">
-        <v>0</v>
-      </c>
-      <c r="D480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="1">
-        <v>612</v>
-      </c>
-      <c r="B481" t="s">
-        <v>482</v>
-      </c>
-      <c r="C481">
-        <v>0</v>
-      </c>
-      <c r="D481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="1">
-        <v>615</v>
-      </c>
-      <c r="B482" t="s">
-        <v>483</v>
-      </c>
-      <c r="C482">
-        <v>0</v>
-      </c>
-      <c r="D482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="1">
-        <v>616</v>
-      </c>
-      <c r="B483" t="s">
-        <v>484</v>
-      </c>
-      <c r="C483">
-        <v>0</v>
-      </c>
-      <c r="D483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="1">
-        <v>617</v>
-      </c>
-      <c r="B484" t="s">
-        <v>485</v>
-      </c>
-      <c r="C484">
-        <v>0</v>
-      </c>
-      <c r="D484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="1">
-        <v>619</v>
-      </c>
-      <c r="B485" t="s">
-        <v>486</v>
-      </c>
-      <c r="C485">
-        <v>0</v>
-      </c>
-      <c r="D485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="1">
-        <v>620</v>
-      </c>
-      <c r="B486" t="s">
-        <v>487</v>
-      </c>
-      <c r="C486">
-        <v>0</v>
-      </c>
-      <c r="D486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="1">
-        <v>622</v>
-      </c>
-      <c r="B487" t="s">
-        <v>488</v>
-      </c>
-      <c r="C487">
-        <v>0</v>
-      </c>
-      <c r="D487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="1">
-        <v>625</v>
-      </c>
-      <c r="B488" t="s">
-        <v>489</v>
-      </c>
-      <c r="C488">
-        <v>0</v>
-      </c>
-      <c r="D488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="1">
-        <v>626</v>
-      </c>
-      <c r="B489" t="s">
-        <v>490</v>
-      </c>
-      <c r="C489">
-        <v>0</v>
-      </c>
-      <c r="D489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="1">
-        <v>627</v>
-      </c>
-      <c r="B490" t="s">
-        <v>491</v>
-      </c>
-      <c r="C490">
-        <v>0</v>
-      </c>
-      <c r="D490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="1">
-        <v>635</v>
-      </c>
-      <c r="B491" t="s">
-        <v>492</v>
-      </c>
-      <c r="C491">
-        <v>0</v>
-      </c>
-      <c r="D491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="1">
-        <v>644</v>
-      </c>
-      <c r="B492" t="s">
-        <v>493</v>
-      </c>
-      <c r="C492">
-        <v>0</v>
-      </c>
-      <c r="D492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="1">
-        <v>645</v>
-      </c>
-      <c r="B493" t="s">
-        <v>494</v>
-      </c>
-      <c r="C493">
-        <v>0</v>
-      </c>
-      <c r="D493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="1">
-        <v>646</v>
-      </c>
-      <c r="B494" t="s">
-        <v>495</v>
-      </c>
-      <c r="C494">
-        <v>0</v>
-      </c>
-      <c r="D494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="1">
-        <v>647</v>
-      </c>
-      <c r="B495" t="s">
-        <v>496</v>
-      </c>
-      <c r="C495">
-        <v>0</v>
-      </c>
-      <c r="D495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="1">
-        <v>648</v>
-      </c>
-      <c r="B496" t="s">
-        <v>497</v>
-      </c>
-      <c r="C496">
-        <v>0</v>
-      </c>
-      <c r="D496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="1">
-        <v>649</v>
-      </c>
-      <c r="B497" t="s">
-        <v>498</v>
-      </c>
-      <c r="C497">
-        <v>0</v>
-      </c>
-      <c r="D497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="1">
-        <v>650</v>
-      </c>
-      <c r="B498" t="s">
-        <v>499</v>
-      </c>
-      <c r="C498">
-        <v>0</v>
-      </c>
-      <c r="D498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="1">
-        <v>651</v>
-      </c>
-      <c r="B499" t="s">
-        <v>500</v>
-      </c>
-      <c r="C499">
-        <v>0</v>
-      </c>
-      <c r="D499">
         <v>0</v>
       </c>
     </row>
